--- a/MainTop/20.01.2026 Таня ВБ/p5.xlsx
+++ b/MainTop/20.01.2026 Таня ВБ/p5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Среднее количество заказов в день, шт</t>
+          <t>Num_Copies</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Остатки склад ВБ, шт</t>
+          <t>Тип упорядочить</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Остатки МП, шт</t>
+          <t>Имя папки</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>дней</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Num_Copies</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Тип упорядочить</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Имя папки</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Остаток</t>
         </is>
@@ -483,631 +463,622 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Термонаклейка Котенок с цветами ромашками</t>
+          <t>Термонаклейка Девочка с маком в руках</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>-37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Термонаклейка Марвел супергерои 4 верт фона</t>
+          <t>Термонаклейка Барт с рогаткой Симпсоны</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>-31.8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Термонаклейка Девочка в розовом платье</t>
+          <t>Термонаклейка Сердечки термозаплатка</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>-34.9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Термонаклейка Звезды Белые термозаплатка</t>
+          <t>Термонаклейка Эльза Холодное сердце синий круг</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>-19.3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Термонаклейка Соник Ежик бежит синий фон краски</t>
+          <t>Термонаклейка Котята на качелях</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>25</v>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>-22.4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Термонаклейка Весёлый енот выглядывает</t>
+          <t>Термонаклейка Человек Паук синий белый круг</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>28</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>-46.3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Термонаклейка Русалочка поправляет прическу</t>
+          <t>Термонаклейка Минни Маус поправляет бант</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>13</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>25</v>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>-30.7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Термонаклейка Тигренок счастливый радужный</t>
+          <t>Термонаклейка Звезды Черные термозаплатка</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>-20.3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Термонаклейка Радужный мишка с улыбкой</t>
+          <t>Термонаклейка Мишка красная гоночная машина</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>-20.3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Термонаклейка Собачка в шляпе</t>
+          <t>Термонаклейка Котенок с цветами ромашками</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>25</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>-26.3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Термонаклейка Спанч Боб и друзья</t>
+          <t>Термонаклейка Марвел супергерои 4 верт фона</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>-26.3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Термонаклейка Эльза Анна Холодное сердце паттерн</t>
+          <t>Термонаклейка Девочка в розовом платье</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>25</v>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>-26.3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Термонаклейка Человек Паук круг красный синий</t>
+          <t>Термонаклейка Звезды Белые термозаплатка</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>6</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>-27.3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Термонаклейка Спанч Боб и друзья Keep Vibes</t>
+          <t>Термонаклейка Соник Ежик бежит синий фон краски</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E15" t="n">
-        <v>25</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>-27.3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Термонаклейка Дисней утка Дейзи и Минни пис</t>
+          <t>Термонаклейка Весёлый енот выглядывает</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E16" t="n">
-        <v>25</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>-35.6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Термонаклейка Разноцветные сердечки</t>
+          <t>Термонаклейка Русалочка поправляет прическу</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E17" t="n">
-        <v>25</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>-30.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Термонаклейка Минни Маус Единорог розовый</t>
+          <t>Термонаклейка Тигренок счастливый радужный</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E18" t="n">
-        <v>25</v>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>-25.2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Термонаклейка Радужный мишка с улыбкой</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Термонаклейка Собачка в шляпе</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Термонаклейка Спанч Боб и друзья</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Термонаклейка Эльза Анна Холодное сердце паттерн</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Термонаклейка Человек Паук круг красный синий</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Термонаклейка Спанч Боб и друзья Keep Vibes</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Термонаклейка Дисней утка Дейзи и Минни пис</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Термонаклейка Разноцветные сердечки</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Термонаклейка Минни Маус Единорог розовый</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>Термонаклейка Человек Паук круг надпись снизу</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>25</v>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>-25.2</v>
+      <c r="B28" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2_а5</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
